--- a/data/case1/2/Q_device_14.xlsx
+++ b/data/case1/2/Q_device_14.xlsx
@@ -62,42 +62,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.0047466693841841882</v>
+        <v>0.031369823760205022</v>
       </c>
       <c r="B1" s="0">
-        <v>-0.004746669440619313</v>
+        <v>-0.031369823786462053</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.03411880607592669</v>
+        <v>0.0021143459219155063</v>
       </c>
       <c r="B2" s="0">
-        <v>0.034118806028692092</v>
+        <v>-0.0021143459740951115</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.036991612977419507</v>
+        <v>-0.045311834407592608</v>
       </c>
       <c r="B3" s="0">
-        <v>-0.036991613002963282</v>
+        <v>0.045311834380818101</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.070958700960547724</v>
+        <v>-0.03103266640976023</v>
       </c>
       <c r="B4" s="0">
-        <v>-0.07095870100832069</v>
+        <v>0.031032666375506061</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.030650084993801237</v>
+        <v>0.031675098139486803</v>
       </c>
       <c r="B5" s="0">
-        <v>0.030650084928347348</v>
+        <v>-0.031675098195483538</v>
       </c>
     </row>
   </sheetData>
